--- a/biology/Botanique/Centaurée_chausse-trape/Centaurée_chausse-trape.xlsx
+++ b/biology/Botanique/Centaurée_chausse-trape/Centaurée_chausse-trape.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_chausse-trape</t>
+          <t>Centaurée_chausse-trape</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurea calcitrapa
 La Centaurée Chausse-trape (Centaurea calcitrapa), Centaurée étoilée ou Chardon étoilé, est une espèce de plantes à fleurs de la famille des Asteraceae (Composées).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_chausse-trape</t>
+          <t>Centaurée_chausse-trape</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de 30 à 60 cm à tige dressée, ramifiée en rameaux étalés. Feuilles alternes velues, légèrement dentées. Capitules rosés, bractées épineuses sur base très épaissie garnie d'épines.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_chausse-trape</t>
+          <t>Centaurée_chausse-trape</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De juin à octobre.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_chausse-trape</t>
+          <t>Centaurée_chausse-trape</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sud-est de la France, en plaine jusqu'à 1 000 m, lieux secs et ensoleillés (chemins, terrains incultes) même en Afrique du Nord jusqu'à 1300 m en montagne.
 </t>
